--- a/docs/matlab/ml-100.slim.xlsx
+++ b/docs/matlab/ml-100.slim.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5685" windowHeight="4770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5685" windowHeight="4770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
-    <sheet name="u2" sheetId="7" r:id="rId2"/>
-    <sheet name="u3" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="u2" sheetId="7" r:id="rId3"/>
+    <sheet name="u3" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -1060,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5657,6 +5658,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12590,7 +12606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G327"/>
   <sheetViews>
